--- a/data/inter_iit_data/time_matrix_pickups_to_delivery_bangalore_pickups.xlsx
+++ b/data/inter_iit_data/time_matrix_pickups_to_delivery_bangalore_pickups.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ID23"/>
+  <dimension ref="A1:IE24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1148,6 +1148,9 @@
       <c r="ID1" s="1" t="n">
         <v>237</v>
       </c>
+      <c r="IE1" s="1" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1864,6 +1867,9 @@
       <c r="ID2" t="n">
         <v>280</v>
       </c>
+      <c r="IE2" t="n">
+        <v>1038</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -2580,6 +2586,9 @@
       <c r="ID3" t="n">
         <v>1384</v>
       </c>
+      <c r="IE3" t="n">
+        <v>945</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -3296,6 +3305,9 @@
       <c r="ID4" t="n">
         <v>1311</v>
       </c>
+      <c r="IE4" t="n">
+        <v>1085</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -4012,6 +4024,9 @@
       <c r="ID5" t="n">
         <v>138</v>
       </c>
+      <c r="IE5" t="n">
+        <v>1060</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -4728,6 +4743,9 @@
       <c r="ID6" t="n">
         <v>977</v>
       </c>
+      <c r="IE6" t="n">
+        <v>791</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -5444,6 +5462,9 @@
       <c r="ID7" t="n">
         <v>1324</v>
       </c>
+      <c r="IE7" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -6160,6 +6181,9 @@
       <c r="ID8" t="n">
         <v>791</v>
       </c>
+      <c r="IE8" t="n">
+        <v>741</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -6876,6 +6900,9 @@
       <c r="ID9" t="n">
         <v>1014</v>
       </c>
+      <c r="IE9" t="n">
+        <v>840</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -7592,6 +7619,9 @@
       <c r="ID10" t="n">
         <v>929</v>
       </c>
+      <c r="IE10" t="n">
+        <v>768</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -8308,6 +8338,9 @@
       <c r="ID11" t="n">
         <v>1295</v>
       </c>
+      <c r="IE11" t="n">
+        <v>856</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -9024,6 +9057,9 @@
       <c r="ID12" t="n">
         <v>1259</v>
       </c>
+      <c r="IE12" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -9740,6 +9776,9 @@
       <c r="ID13" t="n">
         <v>1221</v>
       </c>
+      <c r="IE13" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -10456,6 +10495,9 @@
       <c r="ID14" t="n">
         <v>1382</v>
       </c>
+      <c r="IE14" t="n">
+        <v>316</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -11172,6 +11214,9 @@
       <c r="ID15" t="n">
         <v>1187</v>
       </c>
+      <c r="IE15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -11888,6 +11933,9 @@
       <c r="ID16" t="n">
         <v>1590</v>
       </c>
+      <c r="IE16" t="n">
+        <v>765</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -12604,6 +12652,9 @@
       <c r="ID17" t="n">
         <v>1278</v>
       </c>
+      <c r="IE17" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -13320,6 +13371,9 @@
       <c r="ID18" t="n">
         <v>1499</v>
       </c>
+      <c r="IE18" t="n">
+        <v>781</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -14036,6 +14090,9 @@
       <c r="ID19" t="n">
         <v>1546</v>
       </c>
+      <c r="IE19" t="n">
+        <v>1382</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -14752,6 +14809,9 @@
       <c r="ID20" t="n">
         <v>1007</v>
       </c>
+      <c r="IE20" t="n">
+        <v>822</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -15468,6 +15528,9 @@
       <c r="ID21" t="n">
         <v>941</v>
       </c>
+      <c r="IE21" t="n">
+        <v>773</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -16184,6 +16247,9 @@
       <c r="ID22" t="n">
         <v>306</v>
       </c>
+      <c r="IE22" t="n">
+        <v>1128</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -16898,6 +16964,728 @@
         <v>264</v>
       </c>
       <c r="ID23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE23" t="n">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>141</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1314</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1279</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1210</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1279</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1189</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1284</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1205</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1280</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1377</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1128</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1263</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1327</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1121</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1243</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1128</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1050</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1118</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1067</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1311</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1327</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1264</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1411</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1188</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1093</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1230</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1445</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1296</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1283</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1063</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1437</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1480</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1468</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1244</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1244</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1487</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1273</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1273</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1287</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1273</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1211</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1302</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>1468</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1150</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>1317</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>1186</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>1287</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>1300</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1229</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>730</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>1047</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>795</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>876</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>839</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>819</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>910</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>1020</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>776</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>891</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>877</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>880</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>903</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>886</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>818</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>866</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>820</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>857</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>907</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>783</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>902</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>851</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>1261</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>918</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>859</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>818</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>829</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>886</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>859</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>932</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>769</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>886</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>886</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>926</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>857</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>777</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>894</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>874</v>
+      </c>
+      <c r="CK24" t="n">
+        <v>824</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>815</v>
+      </c>
+      <c r="CM24" t="n">
+        <v>937</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>861</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>841</v>
+      </c>
+      <c r="CP24" t="n">
+        <v>903</v>
+      </c>
+      <c r="CQ24" t="n">
+        <v>942</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>953</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>890</v>
+      </c>
+      <c r="CT24" t="n">
+        <v>825</v>
+      </c>
+      <c r="CU24" t="n">
+        <v>921</v>
+      </c>
+      <c r="CV24" t="n">
+        <v>859</v>
+      </c>
+      <c r="CW24" t="n">
+        <v>784</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>565</v>
+      </c>
+      <c r="CY24" t="n">
+        <v>741</v>
+      </c>
+      <c r="CZ24" t="n">
+        <v>709</v>
+      </c>
+      <c r="DA24" t="n">
+        <v>716</v>
+      </c>
+      <c r="DB24" t="n">
+        <v>736</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>679</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>628</v>
+      </c>
+      <c r="DE24" t="n">
+        <v>754</v>
+      </c>
+      <c r="DF24" t="n">
+        <v>660</v>
+      </c>
+      <c r="DG24" t="n">
+        <v>665</v>
+      </c>
+      <c r="DH24" t="n">
+        <v>918</v>
+      </c>
+      <c r="DI24" t="n">
+        <v>701</v>
+      </c>
+      <c r="DJ24" t="n">
+        <v>600</v>
+      </c>
+      <c r="DK24" t="n">
+        <v>668</v>
+      </c>
+      <c r="DL24" t="n">
+        <v>120</v>
+      </c>
+      <c r="DM24" t="n">
+        <v>166</v>
+      </c>
+      <c r="DN24" t="n">
+        <v>681</v>
+      </c>
+      <c r="DO24" t="n">
+        <v>105</v>
+      </c>
+      <c r="DP24" t="n">
+        <v>102</v>
+      </c>
+      <c r="DQ24" t="n">
+        <v>754</v>
+      </c>
+      <c r="DR24" t="n">
+        <v>199</v>
+      </c>
+      <c r="DS24" t="n">
+        <v>114</v>
+      </c>
+      <c r="DT24" t="n">
+        <v>169</v>
+      </c>
+      <c r="DU24" t="n">
+        <v>260</v>
+      </c>
+      <c r="DV24" t="n">
+        <v>205</v>
+      </c>
+      <c r="DW24" t="n">
+        <v>1490</v>
+      </c>
+      <c r="DX24" t="n">
+        <v>130</v>
+      </c>
+      <c r="DY24" t="n">
+        <v>735</v>
+      </c>
+      <c r="DZ24" t="n">
+        <v>918</v>
+      </c>
+      <c r="EA24" t="n">
+        <v>223</v>
+      </c>
+      <c r="EB24" t="n">
+        <v>1490</v>
+      </c>
+      <c r="EC24" t="n">
+        <v>730</v>
+      </c>
+      <c r="ED24" t="n">
+        <v>155</v>
+      </c>
+      <c r="EE24" t="n">
+        <v>1623</v>
+      </c>
+      <c r="EF24" t="n">
+        <v>146</v>
+      </c>
+      <c r="EG24" t="n">
+        <v>688</v>
+      </c>
+      <c r="EH24" t="n">
+        <v>195</v>
+      </c>
+      <c r="EI24" t="n">
+        <v>110</v>
+      </c>
+      <c r="EJ24" t="n">
+        <v>132</v>
+      </c>
+      <c r="EK24" t="n">
+        <v>100</v>
+      </c>
+      <c r="EL24" t="n">
+        <v>131</v>
+      </c>
+      <c r="EM24" t="n">
+        <v>49</v>
+      </c>
+      <c r="EN24" t="n">
+        <v>75</v>
+      </c>
+      <c r="EO24" t="n">
+        <v>153</v>
+      </c>
+      <c r="EP24" t="n">
+        <v>669</v>
+      </c>
+      <c r="EQ24" t="n">
+        <v>193</v>
+      </c>
+      <c r="ER24" t="n">
+        <v>132</v>
+      </c>
+      <c r="ES24" t="n">
+        <v>424</v>
+      </c>
+      <c r="ET24" t="n">
+        <v>837</v>
+      </c>
+      <c r="EU24" t="n">
+        <v>966</v>
+      </c>
+      <c r="EV24" t="n">
+        <v>972</v>
+      </c>
+      <c r="EW24" t="n">
+        <v>927</v>
+      </c>
+      <c r="EX24" t="n">
+        <v>1045</v>
+      </c>
+      <c r="EY24" t="n">
+        <v>1017</v>
+      </c>
+      <c r="EZ24" t="n">
+        <v>910</v>
+      </c>
+      <c r="FA24" t="n">
+        <v>837</v>
+      </c>
+      <c r="FB24" t="n">
+        <v>955</v>
+      </c>
+      <c r="FC24" t="n">
+        <v>1036</v>
+      </c>
+      <c r="FD24" t="n">
+        <v>955</v>
+      </c>
+      <c r="FE24" t="n">
+        <v>1265</v>
+      </c>
+      <c r="FF24" t="n">
+        <v>837</v>
+      </c>
+      <c r="FG24" t="n">
+        <v>875</v>
+      </c>
+      <c r="FH24" t="n">
+        <v>955</v>
+      </c>
+      <c r="FI24" t="n">
+        <v>837</v>
+      </c>
+      <c r="FJ24" t="n">
+        <v>1265</v>
+      </c>
+      <c r="FK24" t="n">
+        <v>955</v>
+      </c>
+      <c r="FL24" t="n">
+        <v>1065</v>
+      </c>
+      <c r="FM24" t="n">
+        <v>1065</v>
+      </c>
+      <c r="FN24" t="n">
+        <v>774</v>
+      </c>
+      <c r="FO24" t="n">
+        <v>850</v>
+      </c>
+      <c r="FP24" t="n">
+        <v>934</v>
+      </c>
+      <c r="FQ24" t="n">
+        <v>957</v>
+      </c>
+      <c r="FR24" t="n">
+        <v>1082</v>
+      </c>
+      <c r="FS24" t="n">
+        <v>600</v>
+      </c>
+      <c r="FT24" t="n">
+        <v>924</v>
+      </c>
+      <c r="FU24" t="n">
+        <v>989</v>
+      </c>
+      <c r="FV24" t="n">
+        <v>827</v>
+      </c>
+      <c r="FW24" t="n">
+        <v>451</v>
+      </c>
+      <c r="FX24" t="n">
+        <v>867</v>
+      </c>
+      <c r="FY24" t="n">
+        <v>500</v>
+      </c>
+      <c r="FZ24" t="n">
+        <v>965</v>
+      </c>
+      <c r="GA24" t="n">
+        <v>825</v>
+      </c>
+      <c r="GB24" t="n">
+        <v>426</v>
+      </c>
+      <c r="GC24" t="n">
+        <v>974</v>
+      </c>
+      <c r="GD24" t="n">
+        <v>993</v>
+      </c>
+      <c r="GE24" t="n">
+        <v>857</v>
+      </c>
+      <c r="GF24" t="n">
+        <v>715</v>
+      </c>
+      <c r="GG24" t="n">
+        <v>379</v>
+      </c>
+      <c r="GH24" t="n">
+        <v>226</v>
+      </c>
+      <c r="GI24" t="n">
+        <v>432</v>
+      </c>
+      <c r="GJ24" t="n">
+        <v>873</v>
+      </c>
+      <c r="GK24" t="n">
+        <v>719</v>
+      </c>
+      <c r="GL24" t="n">
+        <v>1073</v>
+      </c>
+      <c r="GM24" t="n">
+        <v>867</v>
+      </c>
+      <c r="GN24" t="n">
+        <v>756</v>
+      </c>
+      <c r="GO24" t="n">
+        <v>828</v>
+      </c>
+      <c r="GP24" t="n">
+        <v>379</v>
+      </c>
+      <c r="GQ24" t="n">
+        <v>811</v>
+      </c>
+      <c r="GR24" t="n">
+        <v>936</v>
+      </c>
+      <c r="GS24" t="n">
+        <v>1036</v>
+      </c>
+      <c r="GT24" t="n">
+        <v>773</v>
+      </c>
+      <c r="GU24" t="n">
+        <v>934</v>
+      </c>
+      <c r="GV24" t="n">
+        <v>1403</v>
+      </c>
+      <c r="GW24" t="n">
+        <v>854</v>
+      </c>
+      <c r="GX24" t="n">
+        <v>988</v>
+      </c>
+      <c r="GY24" t="n">
+        <v>935</v>
+      </c>
+      <c r="GZ24" t="n">
+        <v>795</v>
+      </c>
+      <c r="HA24" t="n">
+        <v>933</v>
+      </c>
+      <c r="HB24" t="n">
+        <v>797</v>
+      </c>
+      <c r="HC24" t="n">
+        <v>732</v>
+      </c>
+      <c r="HD24" t="n">
+        <v>952</v>
+      </c>
+      <c r="HE24" t="n">
+        <v>451</v>
+      </c>
+      <c r="HF24" t="n">
+        <v>1219</v>
+      </c>
+      <c r="HG24" t="n">
+        <v>881</v>
+      </c>
+      <c r="HH24" t="n">
+        <v>873</v>
+      </c>
+      <c r="HI24" t="n">
+        <v>1186</v>
+      </c>
+      <c r="HJ24" t="n">
+        <v>972</v>
+      </c>
+      <c r="HK24" t="n">
+        <v>958</v>
+      </c>
+      <c r="HL24" t="n">
+        <v>1175</v>
+      </c>
+      <c r="HM24" t="n">
+        <v>853</v>
+      </c>
+      <c r="HN24" t="n">
+        <v>203</v>
+      </c>
+      <c r="HO24" t="n">
+        <v>865</v>
+      </c>
+      <c r="HP24" t="n">
+        <v>906</v>
+      </c>
+      <c r="HQ24" t="n">
+        <v>873</v>
+      </c>
+      <c r="HR24" t="n">
+        <v>892</v>
+      </c>
+      <c r="HS24" t="n">
+        <v>211</v>
+      </c>
+      <c r="HT24" t="n">
+        <v>148</v>
+      </c>
+      <c r="HU24" t="n">
+        <v>304</v>
+      </c>
+      <c r="HV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW24" t="n">
+        <v>756</v>
+      </c>
+      <c r="HX24" t="n">
+        <v>143</v>
+      </c>
+      <c r="HY24" t="n">
+        <v>850</v>
+      </c>
+      <c r="HZ24" t="n">
+        <v>1403</v>
+      </c>
+      <c r="IA24" t="n">
+        <v>881</v>
+      </c>
+      <c r="IB24" t="n">
+        <v>832</v>
+      </c>
+      <c r="IC24" t="n">
+        <v>1273</v>
+      </c>
+      <c r="ID24" t="n">
+        <v>1187</v>
+      </c>
+      <c r="IE24" t="n">
         <v>0</v>
       </c>
     </row>
